--- a/SectionB/Data_Driven/PrintTranscript/SecB_printrans_data.xlsx
+++ b/SectionB/Data_Driven/PrintTranscript/SecB_printrans_data.xlsx
@@ -48,16 +48,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -65,9 +65,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,10 +347,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -357,40 +358,48 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
+          <t>SelectCampus</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Confirm</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Result</t>
         </is>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>trungkien</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>LackQuanity</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -399,18 +408,23 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>kien1111</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>23134123</v>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>UnableBtn</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -419,18 +433,23 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>trungkien</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>23134123</v>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>UnableBtn</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -439,16 +458,21 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>trungkien</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>UnableBtn</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -457,62 +481,96 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>trungkien1</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>UnableBtn</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n">
-        <v>321321</v>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>UnableBtn</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>UnableBtn</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -521,20 +579,23 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>trungkien</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>abcdef</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>InvalidQuantity</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -543,38 +604,46 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>testing12345</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>abcdef</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>LackLocation</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>abcdef</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>LackLocation</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -583,18 +652,75 @@
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>abcdef</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>LackLocation</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>LackQuanity</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>UnableBtn</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
